--- a/biology/Origine et évolution du vivant/Plumatella_crassipes/Plumatella_crassipes.xlsx
+++ b/biology/Origine et évolution du vivant/Plumatella_crassipes/Plumatella_crassipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plumatella crassipes  est une espèce de bryozoaire d'eau douce de la famille des Plumatellidae, assez récemment (1974) décrite par le naturaliste Wiebach[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plumatella crassipes  est une espèce de bryozoaire d'eau douce de la famille des Plumatellidae, assez récemment (1974) décrite par le naturaliste Wiebach.
 L’espèce ne peut pas être identifiée facilement. Les critères d’identifications sont la taille, la forme et les motifs de ses propagules (statoblastes).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Son nom de genre (Plumatella) provient du fait que, vu de près, ses polypes donnent à une colonie dense un aspect « plumeux » ;
 Son nom d'espèce est « crassipes»</t>
@@ -543,7 +557,9 @@
           <t>Identification  taxonomiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’espèce ne peut être identifiée facilement ; Les critères d’identifications sont a taille et forme des flottoblastes (statoblastes à anneau flottant) qui doivent être observés au microscope optique ou au microscope électronique.
 </t>
